--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CH)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CH).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CH)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CH).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | CA 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ch
-Cha
-Chataignée
+          <t>Ch</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cha</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chataignée
 Chacaya trinervis'
 Chaenomeles - Rosacées
  Chaenomeles speciosa
@@ -550,9 +570,47 @@
 Chasmatophyllum musculinum
 Chasmatophyllum nelii
 Chasmatophyllum verdoorniae
-Chasmatophyllum willowmorense
-Che
-Cheilanthus
+Chasmatophyllum willowmorense</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ch</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cheilanthus
 Cheilanthus hispanica  - Cheilanthes d'Espagne
 Cheilanthus pteridioides -  Cheilanthes
 Cheiranthus - fam. Brassicacées
@@ -601,9 +659,47 @@
 Chenopodium album -  Chénopode blanc
 Chenopodium bonus-henricus -  Chénopode bon-Henri ou « Épinard sauvage »
 Chenopodium hybridum -  Chénopode hybride
-Chenopodium polyspermum -  Chénopode à nombreuses graines
-Chi
-Chimaphila
+Chenopodium polyspermum -  Chénopode à nombreuses graines</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ch</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chimaphila
 Chimaphila umbellata
 Chimonanthus
 Chimonanthus praecox
@@ -614,17 +710,127 @@
 Chionanthus
 Chionanthus retusus
 Chionodoxa - fam. Liliacée
-Chionodoxa luciliae
-Chl
-Chloroleucon
+Chionodoxa luciliae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ch</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Chl</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chloroleucon
 Chlorophytum
-Chlorophytum elatum
-Cho
-Choerophyllum
+Chlorophytum elatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cho</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Choerophyllum
 Choisya
-Choisya ternata
-Chr
-Chrysanthellum
+Choisya ternata</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CH)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cho</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chr</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysanthellum
 Chrysanthellum Americanum - Chrysanthellum d'Amérique
 Chrysanthemum - fam. Composées
 Chrysanthemum carinatum -  Chrysanthème à carène
